--- a/Service.Catalog/wwwroot/layout/excel/equipment/EquipmentListado.xlsx
+++ b/Service.Catalog/wwwroot/layout/excel/equipment/EquipmentListado.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\workspace\axsis\LabRamos\API\Service.Catalog\wwwroot\layout\excel\equipment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93692C9C-9BB1-4399-B2D5-22C3A7AF98EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09449A8-87B6-49ED-97DC-2320A1C9B8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sucursales" sheetId="1" r:id="rId1"/>
+    <sheet name="Equipos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="sucursales">Sucursales!$A$4:$H$5</definedName>
+    <definedName name="sucursales">Equipos!$A$4:$H$5</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>

--- a/Service.Catalog/wwwroot/layout/excel/equipment/EquipmentListado.xlsx
+++ b/Service.Catalog/wwwroot/layout/excel/equipment/EquipmentListado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\workspace\axsis\LabRamos\API\Service.Catalog\wwwroot\layout\excel\equipment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09449A8-87B6-49ED-97DC-2320A1C9B8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A098369B-1192-4B26-8F0C-8E32A2E9643C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Equipos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="sucursales">Equipos!$A$4:$H$5</definedName>
+    <definedName name="equipos">Equipos!$A$4:$D$5</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -90,7 +90,7 @@
     <t>No. Serie/mantenimientos</t>
   </si>
   <si>
-    <t>{{item.pendiente}}</t>
+    <t>{{item.NumerosSeries}}</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
